--- a/Assets/Resources/デフォルトデッキリスト.xlsx
+++ b/Assets/Resources/デフォルトデッキリスト.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\00_unity\projects\LorcanaCard\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8522D8AD-B33B-4F96-8A4A-F645F247B3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFAE1F2-ED5D-4B4C-AE0B-594F8AA9072E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1_3弾_赤紫" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="6_4弾_紫緑" sheetId="6" r:id="rId6"/>
     <sheet name="7_4弾_赤青" sheetId="7" r:id="rId7"/>
     <sheet name="8_4弾_赤紫" sheetId="8" r:id="rId8"/>
+    <sheet name="9_4弾_青鋼" sheetId="11" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="212">
   <si>
     <t>default-1</t>
     <phoneticPr fontId="1"/>
@@ -855,20 +856,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>本を読みたまえ</t>
-    <rPh sb="0" eb="1">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1161</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アイスブロック</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -896,23 +883,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>偉大なる石像の龍</t>
-    <rPh sb="0" eb="2">
-      <t>イダイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>セキゾウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>リュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4167</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>4125</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -960,6 +930,205 @@
   </si>
   <si>
     <t>4129</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>生命の宝球</t>
+    <rPh sb="0" eb="2">
+      <t>セイメイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野心と牙</t>
+    <rPh sb="0" eb="2">
+      <t>ヤシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スカットル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4154</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4134</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2130</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>女王</t>
+    <rPh sb="0" eb="2">
+      <t>ジョオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒーラム・フラバーシャム</t>
+    <rPh sb="0" eb="2">
+      <t>コウボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4123</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4156</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default-9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4弾_青鋼</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハガネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剛健の宝球</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タカラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドッカーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スカットル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッキーマウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒーラム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LET IT GO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野獣</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WHOLE NEW WORLD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣をふるえ</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コグスワース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェンポー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ティンカーベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4200</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3196</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4154</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1154</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2142</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1163</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1172</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4178</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1193</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -970,7 +1139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -983,6 +1152,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1006,10 +1182,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2024,7 +2201,7 @@
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:F17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2364,7 +2541,7 @@
   <dimension ref="B2:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3078,7 +3255,7 @@
   <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="B4:F4"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3449,7 +3626,347 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F333EF-EAA6-4FE8-BC91-D490E7CB5680}">
-  <dimension ref="B2:F21"/>
+  <dimension ref="B2:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="3" width="8.796875" style="1"/>
+    <col min="4" max="4" width="19.09765625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.796875" style="2"/>
+    <col min="6" max="16384" width="8.796875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E2" s="2">
+        <f>SUM(E4:E97)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E13" s="2">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="2">
+        <v>4</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A8CD3-1D1C-4717-8833-83CE7FED1153}">
+  <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
@@ -3465,13 +3982,13 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="E2" s="2">
-        <f>SUM(E4:E97)</f>
+        <f>SUM(E4:E100)</f>
         <v>60</v>
       </c>
     </row>
@@ -3497,16 +4014,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -3514,33 +4031,33 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>163</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>164</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6">
@@ -3548,33 +4065,33 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="E7" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>61</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="2:6">
@@ -3582,16 +4099,16 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>166</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:6">
@@ -3599,16 +4116,16 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>167</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="2:6">
@@ -3616,50 +4133,50 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="E11" s="2">
         <v>2</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>170</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
       <c r="E12" s="2">
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>67</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>70</v>
+        <v>166</v>
       </c>
       <c r="E13" s="2">
         <v>4</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>165</v>
       </c>
     </row>
     <row r="14" spans="2:6">
@@ -3667,50 +4184,50 @@
         <v>11</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="E14" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2">
         <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2">
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -3732,70 +4249,53 @@
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2">
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="E20" s="2">
         <v>3</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="2">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3804,12 +4304,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D47A8CD3-1D1C-4717-8833-83CE7FED1153}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E30FA26-37B4-4B0B-A442-029076AD092B}">
   <dimension ref="B2:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -3822,10 +4322,10 @@
   <sheetData>
     <row r="2" spans="2:6">
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E2" s="2">
         <f>SUM(E4:E100)</f>
@@ -3853,289 +4353,238 @@
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2">
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>129</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E6" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="E7" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="E8" s="2">
         <v>4</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>194</v>
       </c>
       <c r="E9" s="2">
         <v>4</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="E10" s="2">
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>195</v>
       </c>
       <c r="E11" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="E12" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="E13" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>30</v>
+        <v>198</v>
       </c>
       <c r="E14" s="2">
         <v>4</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>199</v>
       </c>
       <c r="E15" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="E16" s="2">
         <v>4</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="E17" s="2">
         <v>3</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>41</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>43</v>
+        <v>202</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>177</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
